--- a/biology/Botanique/Coccocypselum_guianense/Coccocypselum_guianense.xlsx
+++ b/biology/Botanique/Coccocypselum_guianense/Coccocypselum_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccocypselum guianense, est une espèce de plantes dicotylédones de la famille des Rubiaceae, originaire des régions tropicales d'Amérique du Sud.
-Elle est connue au Suriname sous les noms de Siborodorokon (Arawak), Takromtje (Kali'na)[4].
+Elle est connue au Suriname sous les noms de Siborodorokon (Arawak), Takromtje (Kali'na).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Descrition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coccocypselum guianense est une herbacée vivace prostrée, rampante ou procombante, vaguement strigile, hirsute ou hispidule.
 On compte  environ 6 paires de nervures secondaires sur les feuilles.
@@ -520,10 +534,10 @@
 L'hypanthium est densément strigile.
 Les lobes du calice sont lancéolés, extérieurement peu séricigènes, intérieurement glabres ou pubescents dans la moitié supérieure.
 La corolle varie de lavande ou bleu à bleu pâle ou blanc.
-Les fruits sont globuleux et blanchis à pourpre lorsqu'ils sont jeunes, devenant oblongs et bleu vif[5].
+Les fruits sont globuleux et blanchis à pourpre lorsqu'ils sont jeunes, devenant oblongs et bleu vif.
 En 1953, Lemée en propose la description suivante de Coccocypselum guianense :
 « Tiges pubescentes ou subglabres ; feuilles de 0,02-0,07 sur 0,02 0,05, ovales ou ovales-arrondies aiguës ou obtuses, à base arrondie ou cordée, pubescentes surtout en dessous, avec 5-6 paires de nervures, stipules très courtes, 3-aristées ; capitules à pédoncule de 0,03-0,04 en général 3-flores, calicé et ovaire très pubescents, corolle bleue ou violacée, longue de 6 mm., pubescente en dehors, à lobes aigus ; baie d'un beau bleu, à diamètre de 5-6 mm., surmontée du calice. - Saint-Laurent (R. Benoist) ; herbier Lemée Saint-Georges d'Oyapoc, Ilet la Mère, Mathoury. »
-— Albert Lemée, 1953.[6]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,14 +565,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccocypselum guianense compte 4 variétés : 
 Coccocypselum guianense var. glabratum Proctor, 1982
 Coccocypselum guianense var. glabrum K. Schum.
 Coccocypselum guianense var. guianense
 Coccocypselum guianense var. patens Steyerm., 1967
-Sa classification taxonomique a été abordée[7],[8].
+Sa classification taxonomique a été abordée,.
 </t>
         </is>
       </c>
@@ -587,10 +603,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coccocypselum guianense est une herbacée poussant sur les pentes boisées, les rochers moussus, les lisières de savanes[9], le long des cours d'eau, à 50-1 300 m d'altitude[5].
-Coccocypselum guianense est une plante hyperaccumulatrice d'aluminium[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coccocypselum guianense est une herbacée poussant sur les pentes boisées, les rochers moussus, les lisières de savanes, le long des cours d'eau, à 50-1 300 m d'altitude.
+Coccocypselum guianense est une plante hyperaccumulatrice d'aluminium.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coccocypselum guianense est présent sur le plateau des Guyanes : Venezuela (Delta Amacuro, Bolívar, Amazonas), Trinidad, Guyana, Suriname, Guyane, Brésil (Pará, Roraima)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coccocypselum guianense est présent sur le plateau des Guyanes : Venezuela (Delta Amacuro, Bolívar, Amazonas), Trinidad, Guyana, Suriname, Guyane, Brésil (Pará, Roraima).
 </t>
         </is>
       </c>
@@ -650,7 +670,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet en a proposé le protologue suivant :
 « 1. TONTANEA Guianenſis. (TABULA 42.)
@@ -669,7 +691,7 @@
 Toute la plante eſt couverte d'un léger duvet.
 Elle eſt preſque toujours en fleur ou en fruit.
 Elle croît dans les forêts humides de l'île de Caïenne &amp; de la Guiane. »
-— Fusée-Aublet, 1775.[11]</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
